--- a/InputData/trans/BNoEVC/BAU Number of EV Chargers.xlsx
+++ b/InputData/trans/BNoEVC/BAU Number of EV Chargers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BNoEVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAF56AC-016E-492C-8470-28F213A73717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87014078-C23B-4D51-96D7-036F51B2527C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -862,8 +862,8 @@
   </sheetPr>
   <dimension ref="A1:AL24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1155,7 +1155,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="18">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="18">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1698,44 +1698,34 @@
       <c r="B21" s="12">
         <v>0</v>
       </c>
-      <c r="C21" s="19">
-        <f>(C18*10^6)/$B$10/($B$7/$B$8)*$B$12</f>
-        <v>10932.127807552264</v>
-      </c>
-      <c r="D21" s="19">
-        <f t="shared" ref="D21:K21" si="1">(D18*10^6)/$B$10/($B$7/$B$8)*$B$12</f>
-        <v>10139.944633091956</v>
-      </c>
-      <c r="E21" s="19">
-        <f t="shared" si="1"/>
-        <v>11486.656029674483</v>
-      </c>
-      <c r="F21" s="19">
-        <f t="shared" si="1"/>
-        <v>12991.804061149072</v>
-      </c>
-      <c r="G21" s="19">
-        <f t="shared" si="1"/>
-        <v>14576.17041006969</v>
-      </c>
-      <c r="H21" s="19">
-        <f t="shared" si="1"/>
-        <v>16398.1917113284</v>
-      </c>
-      <c r="I21" s="19">
-        <f t="shared" si="1"/>
-        <v>18299.431330033138</v>
-      </c>
-      <c r="J21" s="19">
-        <f t="shared" si="1"/>
-        <v>20359.107583629942</v>
-      </c>
-      <c r="K21" s="19">
-        <f t="shared" si="1"/>
-        <v>22498.00215467278</v>
-      </c>
-      <c r="L21" s="19">
-        <f>(L18*10^6)/$B$10/$B$7*$B$12</f>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1785,7 +1775,7 @@
       </c>
       <c r="B23" s="19">
         <f>SUM(C21:K21)</f>
-        <v>137681.43572120171</v>
+        <v>0</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -2228,39 +2218,39 @@
       </c>
       <c r="E10" s="2">
         <f>'Inflation Reduction Act'!C21</f>
-        <v>10932.127807552264</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <f>'Inflation Reduction Act'!D21</f>
-        <v>10139.944633091956</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <f>'Inflation Reduction Act'!E21</f>
-        <v>11486.656029674483</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
         <f>'Inflation Reduction Act'!F21</f>
-        <v>12991.804061149072</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <f>'Inflation Reduction Act'!G21</f>
-        <v>14576.17041006969</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
         <f>'Inflation Reduction Act'!H21</f>
-        <v>16398.1917113284</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
         <f>'Inflation Reduction Act'!I21</f>
-        <v>18299.431330033138</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
         <f>'Inflation Reduction Act'!J21</f>
-        <v>20359.107583629942</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <f>'Inflation Reduction Act'!K21</f>
-        <v>22498.00215467278</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2338,115 +2328,115 @@
       </c>
       <c r="E11">
         <f t="shared" ref="E11:AF11" si="0">D11+(E8-D8)+SUM(E9:E10)</f>
-        <v>251762.11802742296</v>
+        <v>240829.9902198707</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>364830.05288038554</v>
+        <v>343757.9804397414</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>479244.6991299307</v>
+        <v>446685.9706596121</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>595164.49341096531</v>
+        <v>549613.9608794977</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>647672.73524960212</v>
+        <v>587546.03230806487</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>702002.99838949763</v>
+        <v>625478.10373663204</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>758234.50114811282</v>
+        <v>663410.17516521411</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>816525.68016030989</v>
+        <v>701342.24659378128</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>876955.75374354981</v>
+        <v>739274.31802234845</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>914887.82517211698</v>
+        <v>777206.38945091562</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>952819.89660069905</v>
+        <v>815138.4608794977</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>990751.96802926622</v>
+        <v>853070.53230806487</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>1028684.0394578334</v>
+        <v>891002.60373663204</v>
       </c>
       <c r="R11">
         <f t="shared" si="0"/>
-        <v>1066616.1108864155</v>
+        <v>928934.67516521411</v>
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
-        <v>1104548.1823149826</v>
+        <v>966866.74659378128</v>
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>1142480.2537435498</v>
+        <v>1004798.8180223485</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>1180412.325172117</v>
+        <v>1042730.8894509156</v>
       </c>
       <c r="V11">
         <f t="shared" si="0"/>
-        <v>1218344.3966006991</v>
+        <v>1080662.9608794977</v>
       </c>
       <c r="W11">
         <f t="shared" si="0"/>
-        <v>1256276.4680292662</v>
+        <v>1118595.0323080649</v>
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>1294208.5394578334</v>
+        <v>1156527.103736632</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
-        <v>1332140.6108864155</v>
+        <v>1194459.1751652141</v>
       </c>
       <c r="Z11">
         <f t="shared" si="0"/>
-        <v>1370072.6823149826</v>
+        <v>1232391.2465937813</v>
       </c>
       <c r="AA11">
         <f t="shared" si="0"/>
-        <v>1408004.7537435498</v>
+        <v>1270323.3180223485</v>
       </c>
       <c r="AB11">
         <f t="shared" si="0"/>
-        <v>1445936.825172117</v>
+        <v>1308255.3894509156</v>
       </c>
       <c r="AC11">
         <f t="shared" si="0"/>
-        <v>1483868.8966006991</v>
+        <v>1346187.4608794977</v>
       </c>
       <c r="AD11">
         <f t="shared" si="0"/>
-        <v>1521800.9680292662</v>
+        <v>1384119.5323080649</v>
       </c>
       <c r="AE11">
         <f t="shared" si="0"/>
-        <v>1559733.0394578334</v>
+        <v>1422051.603736632</v>
       </c>
       <c r="AF11">
         <f t="shared" si="0"/>
-        <v>1597665.1108864155</v>
+        <v>1459983.6751652141</v>
       </c>
     </row>
   </sheetData>
@@ -2580,115 +2570,115 @@
       </c>
       <c r="D2" s="2">
         <f>Calculations!E11</f>
-        <v>251762.11802742296</v>
+        <v>240829.9902198707</v>
       </c>
       <c r="E2" s="2">
         <f>Calculations!F11</f>
-        <v>364830.05288038554</v>
+        <v>343757.9804397414</v>
       </c>
       <c r="F2" s="2">
         <f>Calculations!G11</f>
-        <v>479244.6991299307</v>
+        <v>446685.9706596121</v>
       </c>
       <c r="G2" s="2">
         <f>Calculations!H11</f>
-        <v>595164.49341096531</v>
+        <v>549613.9608794977</v>
       </c>
       <c r="H2" s="2">
         <f>Calculations!I11</f>
-        <v>647672.73524960212</v>
+        <v>587546.03230806487</v>
       </c>
       <c r="I2" s="2">
         <f>Calculations!J11</f>
-        <v>702002.99838949763</v>
+        <v>625478.10373663204</v>
       </c>
       <c r="J2" s="2">
         <f>Calculations!K11</f>
-        <v>758234.50114811282</v>
+        <v>663410.17516521411</v>
       </c>
       <c r="K2" s="2">
         <f>Calculations!L11</f>
-        <v>816525.68016030989</v>
+        <v>701342.24659378128</v>
       </c>
       <c r="L2" s="2">
         <f>Calculations!M11</f>
-        <v>876955.75374354981</v>
+        <v>739274.31802234845</v>
       </c>
       <c r="M2" s="2">
         <f>Calculations!N11</f>
-        <v>914887.82517211698</v>
+        <v>777206.38945091562</v>
       </c>
       <c r="N2" s="2">
         <f>Calculations!O11</f>
-        <v>952819.89660069905</v>
+        <v>815138.4608794977</v>
       </c>
       <c r="O2" s="2">
         <f>Calculations!P11</f>
-        <v>990751.96802926622</v>
+        <v>853070.53230806487</v>
       </c>
       <c r="P2" s="2">
         <f>Calculations!Q11</f>
-        <v>1028684.0394578334</v>
+        <v>891002.60373663204</v>
       </c>
       <c r="Q2" s="2">
         <f>Calculations!R11</f>
-        <v>1066616.1108864155</v>
+        <v>928934.67516521411</v>
       </c>
       <c r="R2" s="2">
         <f>Calculations!S11</f>
-        <v>1104548.1823149826</v>
+        <v>966866.74659378128</v>
       </c>
       <c r="S2" s="2">
         <f>Calculations!T11</f>
-        <v>1142480.2537435498</v>
+        <v>1004798.8180223485</v>
       </c>
       <c r="T2" s="2">
         <f>Calculations!U11</f>
-        <v>1180412.325172117</v>
+        <v>1042730.8894509156</v>
       </c>
       <c r="U2" s="2">
         <f>Calculations!V11</f>
-        <v>1218344.3966006991</v>
+        <v>1080662.9608794977</v>
       </c>
       <c r="V2" s="2">
         <f>Calculations!W11</f>
-        <v>1256276.4680292662</v>
+        <v>1118595.0323080649</v>
       </c>
       <c r="W2" s="2">
         <f>Calculations!X11</f>
-        <v>1294208.5394578334</v>
+        <v>1156527.103736632</v>
       </c>
       <c r="X2" s="2">
         <f>Calculations!Y11</f>
-        <v>1332140.6108864155</v>
+        <v>1194459.1751652141</v>
       </c>
       <c r="Y2" s="2">
         <f>Calculations!Z11</f>
-        <v>1370072.6823149826</v>
+        <v>1232391.2465937813</v>
       </c>
       <c r="Z2" s="2">
         <f>Calculations!AA11</f>
-        <v>1408004.7537435498</v>
+        <v>1270323.3180223485</v>
       </c>
       <c r="AA2" s="2">
         <f>Calculations!AB11</f>
-        <v>1445936.825172117</v>
+        <v>1308255.3894509156</v>
       </c>
       <c r="AB2" s="2">
         <f>Calculations!AC11</f>
-        <v>1483868.8966006991</v>
+        <v>1346187.4608794977</v>
       </c>
       <c r="AC2" s="2">
         <f>Calculations!AD11</f>
-        <v>1521800.9680292662</v>
+        <v>1384119.5323080649</v>
       </c>
       <c r="AD2" s="2">
         <f>Calculations!AE11</f>
-        <v>1559733.0394578334</v>
+        <v>1422051.603736632</v>
       </c>
       <c r="AE2" s="2">
         <f>Calculations!AF11</f>
-        <v>1597665.1108864155</v>
+        <v>1459983.6751652141</v>
       </c>
       <c r="AF2" s="2"/>
     </row>
